--- a/biology/Zoologie/Cyprin/Cyprin.xlsx
+++ b/biology/Zoologie/Cyprin/Cyprin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,20 +490,22 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme « cyprin » est un nom vernaculaire ambigu en français, pouvant désigner plusieurs espèces différentes de poissons cypriniformes :
-Carassius auratus, aussi appelé Poisson rouge, Poisson rouge commun, Carassin doré ou Cyprin doré[1],[2] ;
-Carassius carassius, aussi appelé Carassin commun, Carpe à la lune, Gardon carpé ou Cyprin[3] ;
-Catostomus commersonii, aussi appelé Meunier noir ou Cyprin-sucet, qui appartient à la famille des catostomidés[4] ;
-Labeo niloticus, aussi appelé Cyprin lebis ou Carpe du Nil[5] ;
-Notropis chrosomus (en), aussi appelé Méné arc-en-ciel, Cyprin arc-en-ciel ou Vairon arc-en-ciel[6] ;
-Pachychilon macedonicum, aussi appelé Cyprin lippu macédonien[7] ;
-Pachychilon pictum, aussi appelé Épirine lippue, Cyprin lippu tacheté ou Gardon d'Albanie[8],[9] ;
-Rhodeus amarus, aussi appelé Bouvière, Bouvière amère, Péteuse ou Cyprin amer[10] ;
-Rutilus rutilus, aussi appelé Gardon, Gardon blanc, Gardon commun ou Cyprin rosse[11] ;
-Squalius cephalus, aussi appelé Chevaine, Chevesne, Meunier ou Cyprin chevane[12].
-Par extension, il peut désigner la famille des cyprinidés dans son ensemble[13].
+Carassius auratus, aussi appelé Poisson rouge, Poisson rouge commun, Carassin doré ou Cyprin doré, ;
+Carassius carassius, aussi appelé Carassin commun, Carpe à la lune, Gardon carpé ou Cyprin ;
+Catostomus commersonii, aussi appelé Meunier noir ou Cyprin-sucet, qui appartient à la famille des catostomidés ;
+Labeo niloticus, aussi appelé Cyprin lebis ou Carpe du Nil ;
+Notropis chrosomus (en), aussi appelé Méné arc-en-ciel, Cyprin arc-en-ciel ou Vairon arc-en-ciel ;
+Pachychilon macedonicum, aussi appelé Cyprin lippu macédonien ;
+Pachychilon pictum, aussi appelé Épirine lippue, Cyprin lippu tacheté ou Gardon d'Albanie, ;
+Rhodeus amarus, aussi appelé Bouvière, Bouvière amère, Péteuse ou Cyprin amer ;
+Rutilus rutilus, aussi appelé Gardon, Gardon blanc, Gardon commun ou Cyprin rosse ;
+Squalius cephalus, aussi appelé Chevaine, Chevesne, Meunier ou Cyprin chevane.
+Par extension, il peut désigner la famille des cyprinidés dans son ensemble.
 			Carassius auratus.
 			Catostomus commersonii.
 			Labeo niloticus.
@@ -530,7 +542,9 @@
           <t>Autres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>l'Éléotris cyprin (en) (Hypseleotris cyprinoides), espèce de poissons gobiformes ;
 le Lernéocère cyprin (en) (Lernaea cyprinacea), espèce de crustacés ;
